--- a/analysis/participant_extractedmetrics/participant210.xlsx
+++ b/analysis/participant_extractedmetrics/participant210.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="94">
   <si>
     <t/>
   </si>
@@ -246,6 +246,9 @@
     <t>var</t>
   </si>
   <si>
+    <t>total:</t>
+  </si>
+  <si>
     <t>assign</t>
   </si>
   <si>
@@ -289,13 +292,16 @@
   </si>
   <si>
     <t>param2</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -306,6 +312,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,12 +333,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2452,965 +2475,1001 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
       <c r="AI1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="AI2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>89.0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>127.0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>15.0</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>89.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>90.0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="W4" s="4">
         <v>3.0</v>
       </c>
-      <c r="C4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="X4" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>1.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="AE4" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="AF4" s="4">
         <v>4.0</v>
       </c>
-      <c r="G4" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>222.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>106.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="1">
+      <c r="AG4" s="4">
         <v>7.0</v>
       </c>
-      <c r="U4" s="1">
-        <v>190.0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="X4" s="1">
+      <c r="AH4" s="4">
         <v>15.0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>728.0</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>17.0</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1384.79</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3203.08</v>
-      </c>
-      <c r="D5" s="1">
-        <v>517.19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4821.84</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2102.25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4437.9</v>
-      </c>
-      <c r="H5" s="1">
-        <v>19804.35</v>
-      </c>
-      <c r="I5" s="1">
-        <v>21706.64</v>
-      </c>
-      <c r="J5" s="1">
-        <v>94449.56</v>
-      </c>
-      <c r="K5" s="1">
-        <v>12329.43</v>
-      </c>
-      <c r="L5" s="1">
-        <v>47133.26</v>
-      </c>
-      <c r="M5" s="1">
-        <v>23859.24</v>
-      </c>
-      <c r="N5" s="1">
-        <v>12079.26</v>
-      </c>
-      <c r="O5" s="1">
-        <v>13214.56</v>
-      </c>
-      <c r="P5" s="1">
-        <v>19704.18</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>116.68</v>
-      </c>
-      <c r="R5" s="1">
-        <v>104593.22</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" s="1">
-        <v>3336.85</v>
-      </c>
-      <c r="U5" s="1">
-        <v>84454.58</v>
-      </c>
-      <c r="V5" s="1">
-        <v>8842.43</v>
-      </c>
-      <c r="W5" s="1">
-        <v>2619.4</v>
-      </c>
-      <c r="X5" s="1">
-        <v>9209.36</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>2552.1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>3453.61</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>8809.8</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>5572.74</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>13598.26</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>1134.56</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>326230.61</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>2953.12</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>5355.28</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>11779.39</v>
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>222.0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>106.0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>369.0</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>190.0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>718.0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>17.0</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.45</v>
-      </c>
-      <c r="J6" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.96</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7.49</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.79</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3.13</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="R6" s="1">
-        <v>33.03</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="U6" s="1">
-        <v>13.41</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>51.81</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>1.87</v>
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1384.79</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3203.08</v>
+      </c>
+      <c r="D6" s="4">
+        <v>517.19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4821.84</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2102.25</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4437.9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>19804.35</v>
+      </c>
+      <c r="I6" s="4">
+        <v>21706.64</v>
+      </c>
+      <c r="J6" s="4">
+        <v>94449.56</v>
+      </c>
+      <c r="K6" s="4">
+        <v>12329.43</v>
+      </c>
+      <c r="L6" s="4">
+        <v>47133.26</v>
+      </c>
+      <c r="M6" s="4">
+        <v>23859.24</v>
+      </c>
+      <c r="N6" s="4">
+        <v>12079.26</v>
+      </c>
+      <c r="O6" s="4">
+        <v>13214.56</v>
+      </c>
+      <c r="P6" s="4">
+        <v>19704.18</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="R6" s="4">
+        <v>104593.2</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="4">
+        <v>3336.85</v>
+      </c>
+      <c r="U6" s="4">
+        <v>84454.58</v>
+      </c>
+      <c r="V6" s="4">
+        <v>8842.43</v>
+      </c>
+      <c r="W6" s="4">
+        <v>2619.4</v>
+      </c>
+      <c r="X6" s="4">
+        <v>9209.36</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>2552.1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3453.61</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>8809.8</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>5572.74</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>13598.26</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1134.56</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>322810.6</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>2953.12</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>5355.28</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>11779.39</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1">
-        <v>461.6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>400.38</v>
-      </c>
-      <c r="D7" s="1">
-        <v>517.19</v>
-      </c>
-      <c r="E7" s="1">
-        <v>438.35</v>
-      </c>
-      <c r="F7" s="1">
-        <v>525.56</v>
-      </c>
-      <c r="G7" s="1">
-        <v>369.83</v>
-      </c>
-      <c r="H7" s="1">
-        <v>535.25</v>
-      </c>
-      <c r="I7" s="1">
-        <v>493.33</v>
-      </c>
-      <c r="J7" s="1">
-        <v>425.45</v>
-      </c>
-      <c r="K7" s="1">
-        <v>684.97</v>
-      </c>
-      <c r="L7" s="1">
-        <v>444.65</v>
-      </c>
-      <c r="M7" s="1">
-        <v>477.18</v>
-      </c>
-      <c r="N7" s="1">
-        <v>575.2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>528.58</v>
-      </c>
-      <c r="P7" s="1">
-        <v>419.24</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>116.68</v>
-      </c>
-      <c r="R7" s="1">
-        <v>283.45</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="1">
-        <v>476.69</v>
-      </c>
-      <c r="U7" s="1">
-        <v>444.5</v>
-      </c>
-      <c r="V7" s="1">
-        <v>491.25</v>
-      </c>
-      <c r="W7" s="1">
-        <v>523.88</v>
-      </c>
-      <c r="X7" s="1">
-        <v>613.96</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>510.42</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>575.6</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>518.22</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>428.67</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>468.91</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>567.28</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>448.12</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>421.87</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>669.41</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>692.91</v>
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="J7" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="L7" s="4">
+        <v>7.49</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.79</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>3.13</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="R7" s="4">
+        <v>33.03</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="U7" s="4">
+        <v>13.41</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>51.26</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1.87</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4">
+        <v>461.6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>400.38</v>
+      </c>
+      <c r="D8" s="4">
+        <v>517.19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>438.35</v>
+      </c>
+      <c r="F8" s="4">
+        <v>525.56</v>
+      </c>
+      <c r="G8" s="4">
+        <v>369.83</v>
+      </c>
+      <c r="H8" s="4">
+        <v>535.25</v>
+      </c>
+      <c r="I8" s="4">
+        <v>493.33</v>
+      </c>
+      <c r="J8" s="4">
+        <v>425.45</v>
+      </c>
+      <c r="K8" s="4">
+        <v>684.97</v>
+      </c>
+      <c r="L8" s="4">
+        <v>444.65</v>
+      </c>
+      <c r="M8" s="4">
+        <v>477.18</v>
+      </c>
+      <c r="N8" s="4">
+        <v>575.2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>528.58</v>
+      </c>
+      <c r="P8" s="4">
+        <v>419.24</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="R8" s="4">
+        <v>283.45</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="4">
+        <v>476.69</v>
+      </c>
+      <c r="U8" s="4">
+        <v>444.5</v>
+      </c>
+      <c r="V8" s="4">
+        <v>491.25</v>
+      </c>
+      <c r="W8" s="4">
+        <v>523.88</v>
+      </c>
+      <c r="X8" s="4">
+        <v>613.96</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>510.42</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>575.6</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>518.22</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>428.67</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>468.91</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>567.28</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>449.6</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>421.87</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>669.41</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>692.91</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="4">
         <v>383.69</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="4">
         <v>100.06</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="4">
         <v>517.19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="4">
         <v>216.85</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="4">
         <v>300.31</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="4">
         <v>266.96</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="4">
         <v>100.06</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="4">
         <v>216.85</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9" s="4">
         <v>216.85</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K9" s="4">
         <v>166.88</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L9" s="4">
         <v>216.85</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="4">
         <v>150.19</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N9" s="4">
         <v>583.91</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O9" s="4">
         <v>216.85</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P9" s="4">
         <v>316.98</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q9" s="4">
         <v>116.68</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R9" s="4">
         <v>133.42</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="S9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="4">
         <v>433.79</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U9" s="4">
         <v>216.85</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V9" s="4">
         <v>250.22</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W9" s="4">
         <v>583.91</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X9" s="4">
         <v>216.92</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y9" s="4">
         <v>383.69</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z9" s="4">
         <v>684.06</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA9" s="4">
         <v>316.98</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB9" s="4">
         <v>183.61</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC9" s="4">
         <v>150.19</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD9" s="4">
         <v>417.11</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE9" s="4">
         <v>105.48</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF9" s="4">
         <v>583.91</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG9" s="4">
         <v>166.88</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH9" s="4">
         <v>183.47</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="R12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="1" t="s">
+      <c r="U12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X12" s="1" t="s">
+      <c r="W12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="X12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Y12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="Z12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AA12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AB12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AC12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AD12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AF12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AG12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AH12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AI12" s="1" t="s">
@@ -3418,753 +3477,690 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
       <c r="AI13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="4">
         <v>2.0</v>
       </c>
-      <c r="C14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="J14" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>0.0</v>
       </c>
-      <c r="E14" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="R14" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="4">
         <v>0.0</v>
       </c>
-      <c r="G14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>83.0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="X14" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="AD14" s="1">
+      <c r="AA14" s="4">
         <v>1.0</v>
       </c>
-      <c r="AE14" s="1">
-        <v>87.0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>14.0</v>
+      <c r="AB14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0.0</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="4">
         <v>3.0</v>
       </c>
-      <c r="C15" s="1">
+      <c r="F15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="M15" s="4">
         <v>6.0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="N15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>1.0</v>
       </c>
-      <c r="E15" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="R15" s="4">
+        <v>369.0</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AB15" s="4">
         <v>2.0</v>
       </c>
-      <c r="G15" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>170.0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>324.0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>16.0</v>
+      <c r="AC15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>394.0</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>1.0</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1">
-        <v>1384.79</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2519.03</v>
-      </c>
-      <c r="D16" s="1">
-        <v>517.19</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3804.02</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1334.73</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4321.23</v>
-      </c>
-      <c r="H16" s="1">
-        <v>18469.68</v>
-      </c>
-      <c r="I16" s="1">
-        <v>19020.28</v>
-      </c>
-      <c r="J16" s="1">
-        <v>88527.12</v>
-      </c>
-      <c r="K16" s="1">
-        <v>12329.43</v>
-      </c>
-      <c r="L16" s="1">
-        <v>43412.69</v>
-      </c>
-      <c r="M16" s="1">
-        <v>21906.99</v>
-      </c>
-      <c r="N16" s="1">
-        <v>12079.26</v>
-      </c>
-      <c r="O16" s="1">
-        <v>12213.5</v>
-      </c>
-      <c r="P16" s="1">
-        <v>19053.62</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="1">
-        <v>104593.22</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T16" s="1">
-        <v>3336.85</v>
-      </c>
-      <c r="U16" s="1">
-        <v>78932.62</v>
-      </c>
-      <c r="V16" s="1">
-        <v>8842.43</v>
-      </c>
-      <c r="W16" s="1">
-        <v>2619.4</v>
-      </c>
-      <c r="X16" s="1">
-        <v>9209.36</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>2552.1</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>3019.84</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>7808.75</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>4655.03</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>13197.82</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>1134.56</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>181581.93</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>2953.12</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>5355.28</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>11462.31</v>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="4">
+        <v>684.05</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1017.82</v>
+      </c>
+      <c r="F16" s="4">
+        <v>767.51</v>
+      </c>
+      <c r="G16" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1334.67</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2686.36</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5922.44</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3720.57</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1952.26</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1001.05</v>
+      </c>
+      <c r="P16" s="4">
+        <v>650.55</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="R16" s="4">
+        <v>104593.2</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="4">
+        <v>5521.96</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>433.77</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>1001.05</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>917.71</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>400.44</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>141228.6</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>317.08</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.38</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="I17" s="1">
-        <v>6.08</v>
-      </c>
-      <c r="J17" s="1">
-        <v>28.28</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3.94</v>
-      </c>
-      <c r="L17" s="1">
-        <v>13.87</v>
-      </c>
-      <c r="M17" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>3.86</v>
-      </c>
-      <c r="O17" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="P17" s="1">
-        <v>6.09</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="R17" s="4">
         <v>33.03</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1.07</v>
-      </c>
-      <c r="U17" s="1">
-        <v>25.22</v>
-      </c>
-      <c r="V17" s="1">
-        <v>2.83</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="X17" s="1">
-        <v>2.94</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>4.22</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>1.71</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>3.66</v>
+      <c r="S17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0.29</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>44.54</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0.1</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="1">
-        <v>461.6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>419.84</v>
-      </c>
-      <c r="D18" s="1">
-        <v>517.19</v>
-      </c>
-      <c r="E18" s="1">
-        <v>475.5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>667.37</v>
-      </c>
-      <c r="G18" s="1">
-        <v>392.84</v>
-      </c>
-      <c r="H18" s="1">
-        <v>577.18</v>
-      </c>
-      <c r="I18" s="1">
-        <v>528.34</v>
-      </c>
-      <c r="J18" s="1">
-        <v>442.64</v>
-      </c>
-      <c r="K18" s="1">
-        <v>684.97</v>
-      </c>
-      <c r="L18" s="1">
-        <v>466.8</v>
-      </c>
-      <c r="M18" s="1">
-        <v>497.89</v>
-      </c>
-      <c r="N18" s="1">
-        <v>575.2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>581.6</v>
-      </c>
-      <c r="P18" s="1">
-        <v>433.04</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4">
+        <v>342.03</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4">
+        <v>339.27</v>
+      </c>
+      <c r="F18" s="4">
+        <v>383.76</v>
+      </c>
+      <c r="G18" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="H18" s="4">
+        <v>266.93</v>
+      </c>
+      <c r="I18" s="4">
+        <v>335.79</v>
+      </c>
+      <c r="J18" s="4">
+        <v>269.2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="4">
+        <v>286.2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>325.38</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="4">
+        <v>250.26</v>
+      </c>
+      <c r="P18" s="4">
+        <v>216.85</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="R18" s="4">
         <v>283.45</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="1">
-        <v>476.69</v>
-      </c>
-      <c r="U18" s="1">
-        <v>464.31</v>
-      </c>
-      <c r="V18" s="1">
-        <v>491.25</v>
-      </c>
-      <c r="W18" s="1">
-        <v>523.88</v>
-      </c>
-      <c r="X18" s="1">
-        <v>613.96</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>510.42</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>603.97</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>600.67</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>423.18</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>471.35</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>567.28</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>560.44</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>421.87</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>669.41</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>716.39</v>
+      <c r="S18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="4">
+        <v>276.1</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>433.77</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>250.26</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>458.85</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>400.44</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>358.45</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>317.08</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="1">
-        <v>383.69</v>
-      </c>
-      <c r="C19" s="1">
-        <v>100.06</v>
-      </c>
-      <c r="D19" s="1">
-        <v>517.19</v>
-      </c>
-      <c r="E19" s="1">
-        <v>216.85</v>
-      </c>
-      <c r="F19" s="1">
-        <v>300.31</v>
-      </c>
-      <c r="G19" s="1">
-        <v>266.96</v>
-      </c>
-      <c r="H19" s="1">
-        <v>100.06</v>
-      </c>
-      <c r="I19" s="1">
-        <v>216.85</v>
-      </c>
-      <c r="J19" s="1">
-        <v>216.85</v>
-      </c>
-      <c r="K19" s="1">
-        <v>166.88</v>
-      </c>
-      <c r="L19" s="1">
-        <v>216.85</v>
-      </c>
-      <c r="M19" s="1">
-        <v>150.19</v>
-      </c>
-      <c r="N19" s="1">
-        <v>583.91</v>
-      </c>
-      <c r="O19" s="1">
-        <v>216.85</v>
-      </c>
-      <c r="P19" s="1">
-        <v>316.98</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4">
+        <v>417.13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="4">
+        <v>350.38</v>
+      </c>
+      <c r="F19" s="4">
+        <v>350.38</v>
+      </c>
+      <c r="G19" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="H19" s="4">
+        <v>150.09</v>
+      </c>
+      <c r="I19" s="4">
+        <v>700.79</v>
+      </c>
+      <c r="J19" s="4">
+        <v>150.09</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="M19" s="4">
+        <v>400.44</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="4">
+        <v>317.08</v>
+      </c>
+      <c r="P19" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>116.68</v>
+      </c>
+      <c r="R19" s="4">
         <v>133.42</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" s="1">
-        <v>433.79</v>
-      </c>
-      <c r="U19" s="1">
-        <v>216.85</v>
-      </c>
-      <c r="V19" s="1">
-        <v>250.22</v>
-      </c>
-      <c r="W19" s="1">
-        <v>583.91</v>
-      </c>
-      <c r="X19" s="1">
-        <v>216.92</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>383.69</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>684.06</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>316.98</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>183.61</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>150.19</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>417.11</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>105.48</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>583.91</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>166.88</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>183.47</v>
+      <c r="S19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="4">
+        <v>150.09</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>433.77</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>317.08</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>700.79</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>400.44</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>100.13</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>317.08</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>